--- a/data/trans_dic/AIRE_1_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/AIRE_1_R-Habitat-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>39,96; 71,15</t>
+          <t>38,16; 69,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>64,38; 80,38</t>
+          <t>64,42; 79,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>57,21; 73,45</t>
+          <t>57,75; 73,56</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>70,56; 80,49</t>
+          <t>70,09; 80,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>71,97; 79,96</t>
+          <t>72,08; 79,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>72,64; 78,92</t>
+          <t>72,77; 78,92</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>67,09; 75,96</t>
+          <t>67,22; 76,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>72,82; 80,09</t>
+          <t>73,15; 79,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>71,07; 76,88</t>
+          <t>71,41; 77,07</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>66,6; 78,07</t>
+          <t>66,78; 77,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>66,59; 89,52</t>
+          <t>66,51; 89,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>69,43; 85,05</t>
+          <t>69,11; 84,07</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>72,72; 80,67</t>
+          <t>72,88; 80,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>78,56; 84,14</t>
+          <t>78,43; 84,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>76,87; 81,6</t>
+          <t>76,93; 81,74</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>71,24; 76,08</t>
+          <t>71,31; 76,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>75,51; 81,62</t>
+          <t>75,55; 81,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>74,23; 78,22</t>
+          <t>74,25; 78,55</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/AIRE_1_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/AIRE_1_R-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/AIRE_1_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/AIRE_1_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>38,16; 69,67</t>
+          <t>39,96; 71,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>64,42; 79,57</t>
+          <t>64,38; 80,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>57,75; 73,56</t>
+          <t>57,21; 73,45</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>70,09; 80,26</t>
+          <t>70,56; 80,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>72,08; 79,77</t>
+          <t>71,97; 79,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>72,77; 78,92</t>
+          <t>72,64; 78,92</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>67,22; 76,18</t>
+          <t>67,09; 75,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>73,15; 79,8</t>
+          <t>72,82; 80,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>71,41; 77,07</t>
+          <t>71,07; 76,88</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>66,78; 77,96</t>
+          <t>66,6; 78,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>66,51; 89,03</t>
+          <t>66,59; 89,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>69,11; 84,07</t>
+          <t>69,43; 85,05</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>72,88; 80,53</t>
+          <t>72,72; 80,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>78,43; 84,33</t>
+          <t>78,56; 84,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>76,93; 81,74</t>
+          <t>76,87; 81,6</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>71,31; 76,04</t>
+          <t>71,24; 76,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>75,55; 81,9</t>
+          <t>75,51; 81,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>74,25; 78,55</t>
+          <t>74,23; 78,22</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/AIRE_1_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/AIRE_1_R-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>56,11%</t>
+          <t>73,04%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>72,78%</t>
+          <t>75,22%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>66,72%</t>
+          <t>74,14%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>39,96; 71,15</t>
+          <t>67,48; 77,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>64,38; 80,38</t>
+          <t>71,72; 78,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>57,21; 73,45</t>
+          <t>70,9; 77,06</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>75,86%</t>
+          <t>72,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>76,1%</t>
+          <t>76,28%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>75,97%</t>
+          <t>74,09%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>70,56; 80,49</t>
+          <t>66,49; 76,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>71,97; 79,96</t>
+          <t>72,44; 79,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>72,64; 78,92</t>
+          <t>70,69; 76,77</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>72,05%</t>
+          <t>72,2%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>76,66%</t>
+          <t>77,5%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>74,38%</t>
+          <t>75,49%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>67,09; 75,96</t>
+          <t>65,39; 77,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>72,82; 80,09</t>
+          <t>59,15; 93,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>71,07; 76,88</t>
+          <t>65,74; 88,97</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>72,76%</t>
+          <t>76,64%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>76,46%</t>
+          <t>81,35%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>74,85%</t>
+          <t>79,12%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>66,6; 78,07</t>
+          <t>72,03; 80,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>66,59; 89,52</t>
+          <t>78,39; 83,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>69,43; 85,05</t>
+          <t>76,5; 81,36</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>76,83%</t>
+          <t>73,59%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>81,56%</t>
+          <t>77,84%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>79,39%</t>
+          <t>75,87%</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>72,72; 80,67</t>
+          <t>70,8; 75,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>78,56; 84,14</t>
+          <t>73,71; 84,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>76,87; 81,6</t>
+          <t>73,35; 80,05</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>73,86%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>77,84%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>75,98%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>71,24; 76,08</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>75,51; 81,62</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>74,23; 78,22</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/AIRE_1_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/AIRE_1_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>67,48; 77,98</t>
+          <t>66,93; 77,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>71,72; 78,67</t>
+          <t>71,47; 78,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>70,9; 77,06</t>
+          <t>70,66; 77,22</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>66,49; 76,08</t>
+          <t>66,52; 76,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>72,44; 79,74</t>
+          <t>72,15; 79,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>70,69; 76,77</t>
+          <t>70,86; 77,09</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>65,39; 77,65</t>
+          <t>65,21; 77,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>59,15; 93,33</t>
+          <t>59,35; 92,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>65,74; 88,97</t>
+          <t>65,09; 88,72</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>72,03; 80,66</t>
+          <t>71,85; 80,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>78,39; 83,96</t>
+          <t>78,31; 84,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>76,5; 81,36</t>
+          <t>76,47; 81,33</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>70,8; 75,9</t>
+          <t>70,89; 76,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>73,71; 84,17</t>
+          <t>73,6; 84,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>73,35; 80,05</t>
+          <t>73,35; 80,19</t>
         </is>
       </c>
     </row>
@@ -811,4 +812,462 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no está dispuesta a pagar para reducir la contaminación del aire (impuesto durante 5 años)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>503</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>806</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>254144</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>266850</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>520994</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>232892; 269498</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>253566; 278575</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>496580; 542650</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>370</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>950</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>360288</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>365335</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>725624</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>332903; 383006</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>345562; 380009</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>693925; 754947</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>239318</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>421997</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>661315</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>216138; 256183</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>323184; 501476</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>570169; 777200</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>676</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1086</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>364196</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>430820</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>795017</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>341456; 381750</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>414703; 446075</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>768351; 817178</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1315</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2107</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>3422</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1217946</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1485002</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2702949</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1173195; 1257849</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1404113; 1610666</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2613514; 2857112</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>